--- a/oxygeneringsgraddata.xlsx
+++ b/oxygeneringsgraddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3382A-BBD1-465E-B742-5627DDD7B743}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C109A2-C079-4039-8F2C-89BFF8DD8ABE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,10 +332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -355,6 +355,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
